--- a/reports/air_raw_data/date_direction_quantity.xlsx
+++ b/reports/air_raw_data/date_direction_quantity.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82">
